--- a/OnBoard/output/trust/catch/Catch_Trust_16.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_16.xlsx
@@ -944,7 +944,7 @@
         <v>65</v>
       </c>
       <c r="I14">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="15">
@@ -985,7 +985,7 @@
         <v>87</v>
       </c>
       <c r="I15">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="16">
@@ -1026,7 +1026,7 @@
         <v>172</v>
       </c>
       <c r="I16">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="17">
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="18">
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>39</v>
       </c>
       <c r="I19">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="20">
@@ -1190,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="I20">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="21">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="22">
@@ -1272,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="23">
@@ -1313,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="I23">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="24">
@@ -1354,7 +1354,7 @@
         <v>-1</v>
       </c>
       <c r="I24">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="25">
@@ -1395,7 +1395,7 @@
         <v>-1</v>
       </c>
       <c r="I25">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
     <row r="26">
@@ -1436,7 +1436,7 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>184.0885039370079</v>
+        <v>91.07055555555556</v>
       </c>
     </row>
   </sheetData>
